--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2216450.939048484</v>
+        <v>2210620.130706822</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2229795.431210937</v>
+        <v>2289950.192586967</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.093379124</v>
+        <v>419463.0933791237</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8490865.439988747</v>
+        <v>8489685.481207911</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>163.946322144549</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>171.0862716042877</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>80.89701500534296</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>131.6676372898893</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>70.8828025832271</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>89.24232638793808</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -835,10 +835,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>197.6595505435509</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>316.8231694913275</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>131.6676372898893</v>
+        <v>35.01570020030327</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>39.49616283126828</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>129.9900831386348</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>235.4551847859273</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>371.2932689157835</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>87.519456123834</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>149.8270064780923</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>329.8403799995837</v>
       </c>
       <c r="C11" t="n">
-        <v>322.5943282273995</v>
+        <v>322.5943282273994</v>
       </c>
       <c r="D11" t="n">
         <v>314.9372992407997</v>
       </c>
       <c r="E11" t="n">
-        <v>331.9082713799217</v>
+        <v>331.9082713799216</v>
       </c>
       <c r="F11" t="n">
         <v>346.0760758306228</v>
       </c>
       <c r="G11" t="n">
-        <v>342.3817097021777</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>28.90948618305814</v>
+        <v>254.192801674475</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>70.30432748376059</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.19900125366077</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>186.5457840150481</v>
       </c>
       <c r="V11" t="n">
-        <v>272.0363229488176</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>300.6396264266962</v>
+        <v>212.2145725795524</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>318.9086607615745</v>
       </c>
       <c r="Y11" t="n">
-        <v>325.8763837339057</v>
+        <v>325.8763837339056</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>116.7065202496891</v>
+        <v>116.706520249689</v>
       </c>
       <c r="C13" t="n">
-        <v>101.8536484999715</v>
+        <v>101.8536484999714</v>
       </c>
       <c r="D13" t="n">
-        <v>87.42736371181122</v>
+        <v>87.42736371181117</v>
       </c>
       <c r="E13" t="n">
-        <v>87.35380576469034</v>
+        <v>87.35380576469028</v>
       </c>
       <c r="F13" t="n">
-        <v>89.1032571844576</v>
+        <v>89.10325718445755</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>99.92209510684968</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>87.27434727342172</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>65.11406285459366</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.01256121904963</v>
+        <v>56.01256121904957</v>
       </c>
       <c r="S13" t="n">
-        <v>134.1385047245769</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>166.712443058749</v>
       </c>
       <c r="U13" t="n">
-        <v>215.9349855858189</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>176.0666934804808</v>
+        <v>213.8476797934349</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>59.98199876257792</v>
       </c>
       <c r="Y13" t="n">
-        <v>154.2315223168239</v>
+        <v>154.2315223168238</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
@@ -1613,7 +1613,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1625,7 +1625,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.730459270485625</v>
       </c>
       <c r="W14" t="n">
-        <v>245.4853584108778</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1822,13 +1822,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.4884501927754</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
         <v>90.90562710059311</v>
@@ -1901,7 +1901,7 @@
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
         <v>236.929075365811</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2792,7 +2792,7 @@
         <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
-        <v>295.2524720077827</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
         <v>287.5954430211825</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414335</v>
+        <v>42.962471264142</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>289.1114851537506</v>
+        <v>282.6680226811114</v>
       </c>
       <c r="C32" t="n">
-        <v>281.8654333815663</v>
+        <v>275.4219709089272</v>
       </c>
       <c r="D32" t="n">
-        <v>274.2084043949666</v>
+        <v>267.7649419223275</v>
       </c>
       <c r="E32" t="n">
-        <v>291.1793765340885</v>
+        <v>284.7359140614494</v>
       </c>
       <c r="F32" t="n">
-        <v>305.3471809847896</v>
+        <v>298.9037185121505</v>
       </c>
       <c r="G32" t="n">
-        <v>301.6528148563445</v>
+        <v>295.2093523837054</v>
       </c>
       <c r="H32" t="n">
-        <v>213.4639068286419</v>
+        <v>207.0204443560028</v>
       </c>
       <c r="I32" t="n">
-        <v>29.57543263792745</v>
+        <v>23.13197016528837</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.47010640782757</v>
+        <v>51.02664393518849</v>
       </c>
       <c r="T32" t="n">
-        <v>113.8872833156451</v>
+        <v>107.443820843006</v>
       </c>
       <c r="U32" t="n">
-        <v>145.816889169215</v>
+        <v>139.3734266965759</v>
       </c>
       <c r="V32" t="n">
-        <v>231.3074281029844</v>
+        <v>224.8639656303453</v>
       </c>
       <c r="W32" t="n">
-        <v>259.9107315808631</v>
+        <v>253.4672691082239</v>
       </c>
       <c r="X32" t="n">
-        <v>278.1797659157414</v>
+        <v>271.7363034431023</v>
       </c>
       <c r="Y32" t="n">
-        <v>285.1474888880725</v>
+        <v>278.7040264154334</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75.9776254038559</v>
+        <v>69.53416293121681</v>
       </c>
       <c r="C34" t="n">
-        <v>61.1247536541383</v>
+        <v>54.68129118149922</v>
       </c>
       <c r="D34" t="n">
-        <v>46.69846886597803</v>
+        <v>40.25500639333895</v>
       </c>
       <c r="E34" t="n">
-        <v>46.62491091885714</v>
+        <v>40.18144844621806</v>
       </c>
       <c r="F34" t="n">
-        <v>48.37436233862441</v>
+        <v>41.93089986598532</v>
       </c>
       <c r="G34" t="n">
-        <v>59.19320026101654</v>
+        <v>52.74973778837746</v>
       </c>
       <c r="H34" t="n">
-        <v>46.54545242758859</v>
+        <v>40.1019899549495</v>
       </c>
       <c r="I34" t="n">
-        <v>24.38516800876052</v>
+        <v>17.94170553612143</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>15.28366637321643</v>
+        <v>8.84020390057735</v>
       </c>
       <c r="S34" t="n">
-        <v>93.40960987874375</v>
+        <v>86.96614740610467</v>
       </c>
       <c r="T34" t="n">
-        <v>125.9835482129158</v>
+        <v>119.5400857402768</v>
       </c>
       <c r="U34" t="n">
-        <v>175.2060907399857</v>
+        <v>168.7626282673466</v>
       </c>
       <c r="V34" t="n">
-        <v>155.9412386268517</v>
+        <v>149.4977761542125</v>
       </c>
       <c r="W34" t="n">
-        <v>173.1187849476018</v>
+        <v>166.6753224749627</v>
       </c>
       <c r="X34" t="n">
-        <v>124.3612058943144</v>
+        <v>117.9177434216753</v>
       </c>
       <c r="Y34" t="n">
-        <v>113.5026274709907</v>
+        <v>107.0591649983516</v>
       </c>
     </row>
     <row r="35">
@@ -3554,7 +3554,7 @@
         <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059288</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
@@ -3746,7 +3746,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
@@ -3758,7 +3758,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277553</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U41" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W41" t="n">
         <v>236.929075365811</v>
@@ -3806,7 +3806,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E43" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G43" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V43" t="n">
         <v>132.9595824117996</v>
@@ -3964,7 +3964,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>293.4716851583158</v>
+        <v>293.4716851583157</v>
       </c>
       <c r="C44" t="n">
-        <v>286.2256333861316</v>
+        <v>286.2256333861315</v>
       </c>
       <c r="D44" t="n">
         <v>278.5686043995318</v>
       </c>
       <c r="E44" t="n">
-        <v>295.5395765386538</v>
+        <v>295.5395765386537</v>
       </c>
       <c r="F44" t="n">
-        <v>309.7073809893549</v>
+        <v>309.7073809893548</v>
       </c>
       <c r="G44" t="n">
         <v>306.0130148609097</v>
       </c>
       <c r="H44" t="n">
-        <v>76.12083603293895</v>
+        <v>21.70968591404479</v>
       </c>
       <c r="I44" t="n">
-        <v>33.93563264249271</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>61.83030641239283</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>150.1770891737802</v>
       </c>
       <c r="V44" t="n">
-        <v>235.6676281075497</v>
+        <v>235.6676281075496</v>
       </c>
       <c r="W44" t="n">
-        <v>264.2709315854283</v>
+        <v>264.2709315854282</v>
       </c>
       <c r="X44" t="n">
-        <v>282.5399659203066</v>
+        <v>282.5399659203065</v>
       </c>
       <c r="Y44" t="n">
-        <v>289.5076888926378</v>
+        <v>289.5076888926377</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.33782540842115</v>
+        <v>80.3378254084211</v>
       </c>
       <c r="C46" t="n">
-        <v>65.48495365870356</v>
+        <v>65.4849536587035</v>
       </c>
       <c r="D46" t="n">
-        <v>51.05866887054329</v>
+        <v>51.05866887054323</v>
       </c>
       <c r="E46" t="n">
-        <v>50.9851109234224</v>
+        <v>50.98511092342234</v>
       </c>
       <c r="F46" t="n">
-        <v>52.73456234318967</v>
+        <v>52.73456234318961</v>
       </c>
       <c r="G46" t="n">
-        <v>63.5534002655818</v>
+        <v>63.55340026558174</v>
       </c>
       <c r="H46" t="n">
-        <v>50.90565243215384</v>
+        <v>50.90565243215379</v>
       </c>
       <c r="I46" t="n">
-        <v>28.74536801332577</v>
+        <v>28.74536801332572</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.64386637778169</v>
+        <v>19.64386637778163</v>
       </c>
       <c r="S46" t="n">
-        <v>97.76980988330901</v>
+        <v>97.76980988330895</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3437482174811</v>
+        <v>130.343748217481</v>
       </c>
       <c r="U46" t="n">
         <v>179.5662907445509</v>
       </c>
       <c r="V46" t="n">
-        <v>160.3014386314169</v>
+        <v>160.3014386314168</v>
       </c>
       <c r="W46" t="n">
         <v>177.478984952167</v>
       </c>
       <c r="X46" t="n">
-        <v>128.7214058988796</v>
+        <v>128.7214058988795</v>
       </c>
       <c r="Y46" t="n">
-        <v>117.862827475556</v>
+        <v>117.8628274755559</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.072773171495</v>
+        <v>226.8495399285494</v>
       </c>
       <c r="C2" t="n">
-        <v>1599.897271674425</v>
+        <v>226.8495399285494</v>
       </c>
       <c r="D2" t="n">
-        <v>1599.897271674425</v>
+        <v>226.8495399285494</v>
       </c>
       <c r="E2" t="n">
-        <v>1197.31374679097</v>
+        <v>226.8495399285494</v>
       </c>
       <c r="F2" t="n">
-        <v>780.4193083209473</v>
+        <v>213.9955054989312</v>
       </c>
       <c r="G2" t="n">
-        <v>367.2565528089503</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="H2" t="n">
-        <v>43.17350237544098</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="I2" t="n">
-        <v>43.17350237544098</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="J2" t="n">
-        <v>43.17350237544098</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="K2" t="n">
-        <v>43.17350237544098</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="L2" t="n">
-        <v>123.5190900737063</v>
+        <v>66.74986269506866</v>
       </c>
       <c r="M2" t="n">
-        <v>657.7911819697885</v>
+        <v>576.3658481907462</v>
       </c>
       <c r="N2" t="n">
-        <v>1185.60246560725</v>
+        <v>1085.981833686424</v>
       </c>
       <c r="O2" t="n">
-        <v>1625.642066499579</v>
+        <v>1526.021434578752</v>
       </c>
       <c r="P2" t="n">
-        <v>1973.829558631101</v>
+        <v>1874.208926710274</v>
       </c>
       <c r="Q2" t="n">
-        <v>2158.675118772049</v>
+        <v>2059.054486851222</v>
       </c>
       <c r="R2" t="n">
-        <v>2158.675118772049</v>
+        <v>2059.054486851222</v>
       </c>
       <c r="S2" t="n">
-        <v>2158.675118772049</v>
+        <v>1892.540931792273</v>
       </c>
       <c r="T2" t="n">
-        <v>2158.675118772049</v>
+        <v>1669.04032935169</v>
       </c>
       <c r="U2" t="n">
-        <v>2158.675118772049</v>
+        <v>1413.287599786288</v>
       </c>
       <c r="V2" t="n">
-        <v>2158.675118772049</v>
+        <v>1413.287599786288</v>
       </c>
       <c r="W2" t="n">
-        <v>2158.675118772049</v>
+        <v>1413.287599786288</v>
       </c>
       <c r="X2" t="n">
-        <v>2158.675118772049</v>
+        <v>1023.834994719345</v>
       </c>
       <c r="Y2" t="n">
-        <v>2158.675118772049</v>
+        <v>627.3442856399463</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.5394855154719</v>
+        <v>540.0849350156177</v>
       </c>
       <c r="C3" t="n">
-        <v>691.8852550755641</v>
+        <v>389.4307045757099</v>
       </c>
       <c r="D3" t="n">
-        <v>561.7962876970445</v>
+        <v>259.3417371971902</v>
       </c>
       <c r="E3" t="n">
-        <v>425.3497968079322</v>
+        <v>122.895246308078</v>
       </c>
       <c r="F3" t="n">
-        <v>300.917990691064</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="G3" t="n">
-        <v>180.8581727629285</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="H3" t="n">
-        <v>92.56075636352939</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="I3" t="n">
-        <v>43.17350237544098</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="J3" t="n">
-        <v>156.2884845951684</v>
+        <v>154.2960719567518</v>
       </c>
       <c r="K3" t="n">
-        <v>476.0276306573948</v>
+        <v>474.0352180189783</v>
       </c>
       <c r="L3" t="n">
-        <v>959.5937165557081</v>
+        <v>474.0352180189783</v>
       </c>
       <c r="M3" t="n">
-        <v>1493.86580845179</v>
+        <v>909.452041084257</v>
       </c>
       <c r="N3" t="n">
-        <v>1924.310027217159</v>
+        <v>909.452041084257</v>
       </c>
       <c r="O3" t="n">
-        <v>1924.310027217159</v>
+        <v>1419.068026579934</v>
       </c>
       <c r="P3" t="n">
-        <v>1924.310027217159</v>
+        <v>1824.689395296332</v>
       </c>
       <c r="Q3" t="n">
-        <v>2158.675118772049</v>
+        <v>2059.054486851222</v>
       </c>
       <c r="R3" t="n">
-        <v>2158.675118772049</v>
+        <v>2035.137443749287</v>
       </c>
       <c r="S3" t="n">
-        <v>2158.675118772049</v>
+        <v>1900.206766649156</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.677505347919</v>
+        <v>1723.222954848064</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.61436202656</v>
+        <v>1513.159811526706</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.074360397628</v>
+        <v>1290.619809897773</v>
       </c>
       <c r="W3" t="n">
-        <v>1362.957114530914</v>
+        <v>1060.50256403106</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.650036880926</v>
+        <v>871.1954863810718</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.3358199564333</v>
+        <v>691.881269456579</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.8044410995426</v>
+        <v>485.4357288782032</v>
       </c>
       <c r="C4" t="n">
-        <v>571.5993231655318</v>
+        <v>485.4357288782032</v>
       </c>
       <c r="D4" t="n">
-        <v>500.0005326774236</v>
+        <v>485.4357288782032</v>
       </c>
       <c r="E4" t="n">
-        <v>500.0005326774236</v>
+        <v>485.4357288782032</v>
       </c>
       <c r="F4" t="n">
-        <v>500.0005326774236</v>
+        <v>395.2919648499829</v>
       </c>
       <c r="G4" t="n">
-        <v>331.7464787768691</v>
+        <v>227.0379109494285</v>
       </c>
       <c r="H4" t="n">
-        <v>176.2679277383631</v>
+        <v>71.5593599109225</v>
       </c>
       <c r="I4" t="n">
-        <v>43.17350237544098</v>
+        <v>71.5593599109225</v>
       </c>
       <c r="J4" t="n">
-        <v>43.17350237544098</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="K4" t="n">
-        <v>125.0085434853829</v>
+        <v>123.0161308469663</v>
       </c>
       <c r="L4" t="n">
-        <v>289.1361833591826</v>
+        <v>287.1437707207661</v>
       </c>
       <c r="M4" t="n">
-        <v>475.4277616974466</v>
+        <v>473.4353490590302</v>
       </c>
       <c r="N4" t="n">
-        <v>658.6173957286558</v>
+        <v>656.6249830902393</v>
       </c>
       <c r="O4" t="n">
-        <v>821.3221627703638</v>
+        <v>819.3297501319473</v>
       </c>
       <c r="P4" t="n">
-        <v>941.1983285469423</v>
+        <v>939.2059159085259</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.6205249169933</v>
+        <v>942.6281122785769</v>
       </c>
       <c r="R4" t="n">
-        <v>944.6205249169933</v>
+        <v>942.6281122785769</v>
       </c>
       <c r="S4" t="n">
-        <v>741.8044410995426</v>
+        <v>942.6281122785769</v>
       </c>
       <c r="T4" t="n">
-        <v>741.8044410995426</v>
+        <v>942.6281122785769</v>
       </c>
       <c r="U4" t="n">
-        <v>741.8044410995426</v>
+        <v>942.6281122785769</v>
       </c>
       <c r="V4" t="n">
-        <v>741.8044410995426</v>
+        <v>942.6281122785769</v>
       </c>
       <c r="W4" t="n">
-        <v>741.8044410995426</v>
+        <v>942.6281122785769</v>
       </c>
       <c r="X4" t="n">
-        <v>741.8044410995426</v>
+        <v>708.5477900615599</v>
       </c>
       <c r="Y4" t="n">
-        <v>741.8044410995426</v>
+        <v>485.4357288782032</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1182.674869255512</v>
+        <v>1797.560970696161</v>
       </c>
       <c r="C5" t="n">
-        <v>1182.674869255512</v>
+        <v>1597.904859036008</v>
       </c>
       <c r="D5" t="n">
-        <v>1182.674869255512</v>
+        <v>1597.904859036008</v>
       </c>
       <c r="E5" t="n">
-        <v>780.0913443720567</v>
+        <v>1195.321334152553</v>
       </c>
       <c r="F5" t="n">
-        <v>363.1969059020345</v>
+        <v>778.4268956825306</v>
       </c>
       <c r="G5" t="n">
-        <v>43.17350237544098</v>
+        <v>365.2641401705338</v>
       </c>
       <c r="H5" t="n">
-        <v>43.17350237544098</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="I5" t="n">
-        <v>43.17350237544098</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="J5" t="n">
-        <v>43.17350237544098</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="K5" t="n">
-        <v>43.17350237544098</v>
+        <v>400.1634457644863</v>
       </c>
       <c r="L5" t="n">
-        <v>536.4937940939698</v>
+        <v>599.782914967539</v>
       </c>
       <c r="M5" t="n">
-        <v>1070.765885990052</v>
+        <v>1109.398900463216</v>
       </c>
       <c r="N5" t="n">
-        <v>1598.577169627514</v>
+        <v>1619.014885958894</v>
       </c>
       <c r="O5" t="n">
-        <v>2038.616770519843</v>
+        <v>2059.054486851222</v>
       </c>
       <c r="P5" t="n">
-        <v>2158.675118772049</v>
+        <v>2059.054486851222</v>
       </c>
       <c r="Q5" t="n">
-        <v>2158.675118772049</v>
+        <v>2059.054486851222</v>
       </c>
       <c r="R5" t="n">
-        <v>2120.682205057571</v>
+        <v>2021.061573136744</v>
       </c>
       <c r="S5" t="n">
-        <v>1954.168649998622</v>
+        <v>2021.061573136744</v>
       </c>
       <c r="T5" t="n">
-        <v>1954.168649998622</v>
+        <v>1797.560970696161</v>
       </c>
       <c r="U5" t="n">
-        <v>1954.168649998622</v>
+        <v>1797.560970696161</v>
       </c>
       <c r="V5" t="n">
-        <v>1954.168649998622</v>
+        <v>1797.560970696161</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.169614966909</v>
+        <v>1797.560970696161</v>
       </c>
       <c r="X5" t="n">
-        <v>1583.169614966909</v>
+        <v>1797.560970696161</v>
       </c>
       <c r="Y5" t="n">
-        <v>1583.169614966909</v>
+        <v>1797.560970696161</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.5394855154719</v>
+        <v>840.5470728770554</v>
       </c>
       <c r="C6" t="n">
-        <v>691.8852550755641</v>
+        <v>689.8928424371476</v>
       </c>
       <c r="D6" t="n">
-        <v>561.7962876970445</v>
+        <v>559.8038750586279</v>
       </c>
       <c r="E6" t="n">
-        <v>425.3497968079322</v>
+        <v>423.3573841695157</v>
       </c>
       <c r="F6" t="n">
-        <v>300.917990691064</v>
+        <v>298.9255780526475</v>
       </c>
       <c r="G6" t="n">
-        <v>180.8581727629285</v>
+        <v>178.865760124512</v>
       </c>
       <c r="H6" t="n">
-        <v>92.56075636352939</v>
+        <v>90.56834372511287</v>
       </c>
       <c r="I6" t="n">
-        <v>43.17350237544098</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="J6" t="n">
-        <v>156.2884845951684</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="K6" t="n">
-        <v>476.0276306573948</v>
+        <v>360.9202357992509</v>
       </c>
       <c r="L6" t="n">
-        <v>959.5937165557081</v>
+        <v>844.4863216975641</v>
       </c>
       <c r="M6" t="n">
-        <v>959.5937165557081</v>
+        <v>1354.102307193242</v>
       </c>
       <c r="N6" t="n">
-        <v>1407.789744626178</v>
+        <v>1863.718292688919</v>
       </c>
       <c r="O6" t="n">
-        <v>1924.310027217159</v>
+        <v>2059.054486851222</v>
       </c>
       <c r="P6" t="n">
-        <v>1924.310027217159</v>
+        <v>2059.054486851222</v>
       </c>
       <c r="Q6" t="n">
-        <v>2158.675118772049</v>
+        <v>2059.054486851222</v>
       </c>
       <c r="R6" t="n">
-        <v>2158.675118772049</v>
+        <v>2059.054486851222</v>
       </c>
       <c r="S6" t="n">
-        <v>2158.675118772049</v>
+        <v>2059.054486851222</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.677505347919</v>
+        <v>2023.685092709502</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.61436202656</v>
+        <v>1813.621949388144</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.074360397628</v>
+        <v>1591.081947759211</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.957114530914</v>
+        <v>1360.964701892498</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.650036880926</v>
+        <v>1171.657624242509</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.3358199564333</v>
+        <v>992.3434073180167</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>344.5219816389176</v>
+        <v>543.1129571084099</v>
       </c>
       <c r="C7" t="n">
-        <v>344.5219816389176</v>
+        <v>372.9078391743991</v>
       </c>
       <c r="D7" t="n">
-        <v>344.5219816389176</v>
+        <v>372.9078391743991</v>
       </c>
       <c r="E7" t="n">
-        <v>344.5219816389176</v>
+        <v>372.9078391743991</v>
       </c>
       <c r="F7" t="n">
-        <v>344.5219816389176</v>
+        <v>372.9078391743991</v>
       </c>
       <c r="G7" t="n">
-        <v>176.2679277383631</v>
+        <v>204.6537852738446</v>
       </c>
       <c r="H7" t="n">
-        <v>176.2679277383631</v>
+        <v>204.6537852738446</v>
       </c>
       <c r="I7" t="n">
-        <v>43.17350237544098</v>
+        <v>71.5593599109225</v>
       </c>
       <c r="J7" t="n">
-        <v>43.17350237544098</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="K7" t="n">
-        <v>125.0085434853829</v>
+        <v>123.0161308469663</v>
       </c>
       <c r="L7" t="n">
-        <v>289.1361833591826</v>
+        <v>287.1437707207661</v>
       </c>
       <c r="M7" t="n">
-        <v>475.4277616974466</v>
+        <v>473.4353490590302</v>
       </c>
       <c r="N7" t="n">
-        <v>658.6173957286558</v>
+        <v>656.6249830902393</v>
       </c>
       <c r="O7" t="n">
-        <v>821.3221627703638</v>
+        <v>819.3297501319473</v>
       </c>
       <c r="P7" t="n">
-        <v>941.1983285469423</v>
+        <v>939.2059159085259</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.6205249169933</v>
+        <v>942.6281122785769</v>
       </c>
       <c r="R7" t="n">
-        <v>944.6205249169933</v>
+        <v>818.7271229111539</v>
       </c>
       <c r="S7" t="n">
-        <v>741.8044410995426</v>
+        <v>778.8320089401758</v>
       </c>
       <c r="T7" t="n">
-        <v>741.8044410995426</v>
+        <v>543.1129571084099</v>
       </c>
       <c r="U7" t="n">
-        <v>741.8044410995426</v>
+        <v>543.1129571084099</v>
       </c>
       <c r="V7" t="n">
-        <v>475.8250959203668</v>
+        <v>543.1129571084099</v>
       </c>
       <c r="W7" t="n">
-        <v>344.5219816389176</v>
+        <v>543.1129571084099</v>
       </c>
       <c r="X7" t="n">
-        <v>344.5219816389176</v>
+        <v>543.1129571084099</v>
       </c>
       <c r="Y7" t="n">
-        <v>344.5219816389176</v>
+        <v>543.1129571084099</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>444.3330619782935</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="C8" t="n">
-        <v>444.3330619782935</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="D8" t="n">
-        <v>69.28935600275456</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="E8" t="n">
-        <v>69.28935600275456</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>1943.38222045283</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1601.275411156348</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>1230.276376124636</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>840.8237710576924</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y8" t="n">
-        <v>444.3330619782935</v>
+        <v>2365.64850507718</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4887,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>272.5108437565973</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631995</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202.8717822423411</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>202.8717822423411</v>
+        <v>778.5548747090853</v>
       </c>
       <c r="D10" t="n">
-        <v>202.8717822423411</v>
+        <v>622.9217616116</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>622.9217616116</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>539.420211517574</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>388.0798009336424</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>388.0798009336424</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>388.0798009336424</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>388.0798009336424</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1765.964754536419</v>
+        <v>1718.698020468741</v>
       </c>
       <c r="C11" t="n">
-        <v>1440.111897741066</v>
+        <v>1392.845163673388</v>
       </c>
       <c r="D11" t="n">
-        <v>1121.99341365945</v>
+        <v>1074.726679591772</v>
       </c>
       <c r="E11" t="n">
-        <v>786.7325334777108</v>
+        <v>739.4657994100332</v>
       </c>
       <c r="F11" t="n">
-        <v>437.160739709405</v>
+        <v>389.8940056417275</v>
       </c>
       <c r="G11" t="n">
-        <v>91.32062889912375</v>
+        <v>389.8940056417275</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>133.1335999099345</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3006.765474848543</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>3006.765474848543</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>3006.765474848543</v>
+        <v>2917.526300342091</v>
       </c>
       <c r="V11" t="n">
-        <v>2731.981310253778</v>
+        <v>2917.526300342091</v>
       </c>
       <c r="W11" t="n">
-        <v>2428.304919923782</v>
+        <v>2703.168146221331</v>
       </c>
       <c r="X11" t="n">
-        <v>2428.304919923782</v>
+        <v>2381.038185856104</v>
       </c>
       <c r="Y11" t="n">
-        <v>2099.136855546099</v>
+        <v>2051.870121478421</v>
       </c>
     </row>
     <row r="12">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>431.5515268565708</v>
+        <v>686.4106230534038</v>
       </c>
       <c r="C13" t="n">
-        <v>328.6690536242763</v>
+        <v>583.5281498211094</v>
       </c>
       <c r="D13" t="n">
-        <v>240.3585852285074</v>
+        <v>495.2176814253406</v>
       </c>
       <c r="E13" t="n">
-        <v>152.1224177894263</v>
+        <v>406.9815139862596</v>
       </c>
       <c r="F13" t="n">
-        <v>62.11912770411553</v>
+        <v>316.9782239009489</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>216.0468147021109</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>127.8909083653213</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>98.32830917883022</v>
+        <v>98.32830917883027</v>
       </c>
       <c r="K13" t="n">
-        <v>246.1462743609243</v>
+        <v>246.1462743609244</v>
       </c>
       <c r="L13" t="n">
-        <v>476.2568383068763</v>
+        <v>476.2568383068765</v>
       </c>
       <c r="M13" t="n">
-        <v>728.5313407172924</v>
+        <v>728.5313407172928</v>
       </c>
       <c r="N13" t="n">
-        <v>977.7038988206539</v>
+        <v>977.7038988206542</v>
       </c>
       <c r="O13" t="n">
-        <v>1206.391589934514</v>
+        <v>1206.391589934515</v>
       </c>
       <c r="P13" t="n">
         <v>1392.250679783245</v>
       </c>
       <c r="Q13" t="n">
-        <v>1461.655800225448</v>
+        <v>1461.655800225449</v>
       </c>
       <c r="R13" t="n">
-        <v>1405.077455559741</v>
+        <v>1405.077455559742</v>
       </c>
       <c r="S13" t="n">
-        <v>1269.584016444007</v>
+        <v>1405.077455559742</v>
       </c>
       <c r="T13" t="n">
-        <v>1101.187609313958</v>
+        <v>1236.681048429693</v>
       </c>
       <c r="U13" t="n">
-        <v>883.0714622575746</v>
+        <v>1236.681048429693</v>
       </c>
       <c r="V13" t="n">
-        <v>883.0714622575746</v>
+        <v>1236.681048429693</v>
       </c>
       <c r="W13" t="n">
-        <v>705.226317327796</v>
+        <v>1020.673291062586</v>
       </c>
       <c r="X13" t="n">
-        <v>705.226317327796</v>
+        <v>960.085413524629</v>
       </c>
       <c r="Y13" t="n">
-        <v>549.4369008461557</v>
+        <v>804.2959970429887</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1827.815439560371</v>
+        <v>1563.569031584451</v>
       </c>
       <c r="C14" t="n">
-        <v>1529.58061935049</v>
+        <v>1265.33421137457</v>
       </c>
       <c r="D14" t="n">
-        <v>1239.080171854346</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="E14" t="n">
-        <v>931.4373282580789</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F14" t="n">
-        <v>609.483571075245</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G14" t="n">
-        <v>291.2614968504365</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5288,7 +5288,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>2977.396464052381</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2977.396464052381</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V14" t="n">
-        <v>2977.396464052381</v>
+        <v>2741.243401325149</v>
       </c>
       <c r="W14" t="n">
-        <v>2729.431455556545</v>
+        <v>2465.185047580625</v>
       </c>
       <c r="X14" t="n">
-        <v>2434.91953177679</v>
+        <v>2170.67312380087</v>
       </c>
       <c r="Y14" t="n">
-        <v>2133.369503984579</v>
+        <v>1869.123096008659</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N15" t="n">
-        <v>2262.088962721623</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551007</v>
+        <v>493.0843669551001</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082781</v>
+        <v>417.8199303082776</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979812</v>
+        <v>357.1274984979808</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445329</v>
       </c>
       <c r="G16" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311667</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5434,7 +5434,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
         <v>300.2831496757665</v>
@@ -5464,22 +5464,22 @@
         <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
-        <v>1400.589220329743</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852105</v>
+        <v>850.66272518521</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553819</v>
+        <v>711.5230842553814</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592137</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
         <v>68.77950792924223</v>
@@ -5549,7 +5549,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5674,13 +5674,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
         <v>806.6193906797589</v>
@@ -5689,10 +5689,10 @@
         <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,16 +5786,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5902,31 +5902,31 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229942</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5966,19 +5966,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924223</v>
@@ -6026,13 +6026,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6157,10 +6157,10 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
         <v>1089.200323498045</v>
@@ -6206,70 +6206,70 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838402</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1100.286794884791</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658945</v>
+        <v>1925.441780118091</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2453.253063755553</v>
       </c>
       <c r="O26" t="n">
         <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174142</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164849</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420325</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.56169864057</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="27">
@@ -6297,22 +6297,22 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>876.6700909080899</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878064</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879677</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746016</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232843</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904111</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.22278621427</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218591</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390252</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142166</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678971</v>
+        <v>116.7612945678957</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>670.0483496134134</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884791</v>
+        <v>1193.338156614364</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N29" t="n">
         <v>2360.20170202598</v>
@@ -6479,34 +6479,34 @@
         <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6534,13 +6534,13 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="K30" t="n">
         <v>393.1040050097767</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985353</v>
+        <v>504.3300981985345</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517129</v>
+        <v>429.0656615517122</v>
       </c>
       <c r="D31" t="n">
-        <v>368.373229741416</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878069</v>
+        <v>307.7550988878064</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879682</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746021</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232844</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904117</v>
+        <v>848.050822590411</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351193</v>
       </c>
       <c r="O31" t="n">
         <v>1380.047947122475</v>
@@ -6643,28 +6643,28 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573177</v>
+        <v>1411.834951573176</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286443</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988158</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026475</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1783.662310027837</v>
+        <v>1736.110061724296</v>
       </c>
       <c r="C32" t="n">
-        <v>1498.949751056557</v>
+        <v>1457.906050705177</v>
       </c>
       <c r="D32" t="n">
-        <v>1221.971564799015</v>
+        <v>1187.436412399795</v>
       </c>
       <c r="E32" t="n">
-        <v>927.85098244135</v>
+        <v>899.8243779942907</v>
       </c>
       <c r="F32" t="n">
-        <v>619.419486497118</v>
+        <v>597.9014300022194</v>
       </c>
       <c r="G32" t="n">
-        <v>314.7196735109114</v>
+        <v>299.7101649681736</v>
       </c>
       <c r="H32" t="n">
-        <v>99.09956560319253</v>
+        <v>90.59860501261531</v>
       </c>
       <c r="I32" t="n">
-        <v>69.22539122144764</v>
+        <v>67.2329785830311</v>
       </c>
       <c r="J32" t="n">
-        <v>213.8751641302757</v>
+        <v>211.8827514918592</v>
       </c>
       <c r="K32" t="n">
-        <v>639.3876973299897</v>
+        <v>596.0766849513045</v>
       </c>
       <c r="L32" t="n">
-        <v>1239.012519018046</v>
+        <v>1089.396976669833</v>
       </c>
       <c r="M32" t="n">
-        <v>1891.317949032153</v>
+        <v>1635.397876714414</v>
       </c>
       <c r="N32" t="n">
-        <v>2419.129232669615</v>
+        <v>2163.209160351876</v>
       </c>
       <c r="O32" t="n">
-        <v>2859.168833561944</v>
+        <v>2715.932319061644</v>
       </c>
       <c r="P32" t="n">
-        <v>3207.356325693466</v>
+        <v>3176.803369010606</v>
       </c>
       <c r="Q32" t="n">
-        <v>3392.201885834414</v>
+        <v>3361.648929151555</v>
       </c>
       <c r="R32" t="n">
-        <v>3461.269561072382</v>
+        <v>3361.648929151555</v>
       </c>
       <c r="S32" t="n">
-        <v>3403.218948539223</v>
+        <v>3310.106864570555</v>
       </c>
       <c r="T32" t="n">
-        <v>3288.18128862443</v>
+        <v>3201.577752607923</v>
       </c>
       <c r="U32" t="n">
-        <v>3140.891501584818</v>
+        <v>3060.796513520473</v>
       </c>
       <c r="V32" t="n">
-        <v>2907.247634814127</v>
+        <v>2833.661194701943</v>
       </c>
       <c r="W32" t="n">
-        <v>2644.711542308205</v>
+        <v>2577.633650148181</v>
       </c>
       <c r="X32" t="n">
-        <v>2363.721879767052</v>
+        <v>2303.152535559189</v>
       </c>
       <c r="Y32" t="n">
-        <v>2075.694113213443</v>
+        <v>2021.633316957741</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.5913743614785</v>
+        <v>866.5989617230621</v>
       </c>
       <c r="C33" t="n">
-        <v>717.9371439215707</v>
+        <v>715.9447312831543</v>
       </c>
       <c r="D33" t="n">
-        <v>587.8481765430511</v>
+        <v>585.8557639046346</v>
       </c>
       <c r="E33" t="n">
-        <v>451.4016856539388</v>
+        <v>449.4092730155223</v>
       </c>
       <c r="F33" t="n">
-        <v>326.9698795370707</v>
+        <v>324.9774668986541</v>
       </c>
       <c r="G33" t="n">
-        <v>206.9100616089351</v>
+        <v>204.9176489705186</v>
       </c>
       <c r="H33" t="n">
-        <v>118.6126452095361</v>
+        <v>116.6202325711195</v>
       </c>
       <c r="I33" t="n">
-        <v>69.22539122144764</v>
+        <v>67.2329785830311</v>
       </c>
       <c r="J33" t="n">
-        <v>69.22539122144764</v>
+        <v>180.3479608027585</v>
       </c>
       <c r="K33" t="n">
-        <v>388.9645372836741</v>
+        <v>500.0871068649849</v>
       </c>
       <c r="L33" t="n">
-        <v>872.5306231819873</v>
+        <v>983.6531927632982</v>
       </c>
       <c r="M33" t="n">
-        <v>872.5306231819873</v>
+        <v>1229.061770696398</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.054183334814</v>
+        <v>1229.061770696398</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.574465925795</v>
+        <v>1745.582053287379</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.195834642193</v>
+        <v>2151.203422003776</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.560926197084</v>
+        <v>2385.568513558667</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.643883095148</v>
+        <v>2361.651470456731</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.713205995017</v>
+        <v>2226.7207933566</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.729394193925</v>
+        <v>2049.736981555508</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.666250872567</v>
+        <v>1839.67383823415</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.126249243634</v>
+        <v>1617.133836605218</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.009003376921</v>
+        <v>1387.016590738504</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.701925726933</v>
+        <v>1197.709513088516</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.38770880244</v>
+        <v>1018.395296164023</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>405.5348018022189</v>
+        <v>357.9825534986775</v>
       </c>
       <c r="C34" t="n">
-        <v>343.7926263939984</v>
+        <v>302.7489260426177</v>
       </c>
       <c r="D34" t="n">
-        <v>296.6224558223034</v>
+        <v>262.0873034230834</v>
       </c>
       <c r="E34" t="n">
-        <v>249.5265862072962</v>
+        <v>221.4999817602369</v>
       </c>
       <c r="F34" t="n">
-        <v>200.6635939460594</v>
+        <v>179.1455374511608</v>
       </c>
       <c r="G34" t="n">
-        <v>140.8724825712952</v>
+        <v>125.8629740285573</v>
       </c>
       <c r="H34" t="n">
-        <v>93.85687405857948</v>
+        <v>85.35591346800224</v>
       </c>
       <c r="I34" t="n">
-        <v>69.22539122144764</v>
+        <v>67.2329785830311</v>
       </c>
       <c r="J34" t="n">
-        <v>69.22539122144764</v>
+        <v>67.2329785830311</v>
       </c>
       <c r="K34" t="n">
-        <v>151.0604323313895</v>
+        <v>149.068019692973</v>
       </c>
       <c r="L34" t="n">
-        <v>315.1880722051893</v>
+        <v>425.8792173842126</v>
       </c>
       <c r="M34" t="n">
-        <v>607.7841805129804</v>
+        <v>724.8543535399162</v>
       </c>
       <c r="N34" t="n">
-        <v>864.0366660875998</v>
+        <v>1020.727545388565</v>
       </c>
       <c r="O34" t="n">
-        <v>1133.045963098835</v>
+        <v>1239.525843164901</v>
       </c>
       <c r="P34" t="n">
-        <v>1359.22665884494</v>
+        <v>1359.40200894148</v>
       </c>
       <c r="Q34" t="n">
-        <v>1468.953385184518</v>
+        <v>1362.82420531153</v>
       </c>
       <c r="R34" t="n">
-        <v>1453.515338342886</v>
+        <v>1353.894706422058</v>
       </c>
       <c r="S34" t="n">
-        <v>1359.162197051225</v>
+        <v>1266.050113082559</v>
       </c>
       <c r="T34" t="n">
-        <v>1231.90608774525</v>
+        <v>1145.302551728744</v>
       </c>
       <c r="U34" t="n">
-        <v>1054.930238512941</v>
+        <v>974.8352504485957</v>
       </c>
       <c r="V34" t="n">
-        <v>897.4138358595552</v>
+        <v>823.8273957473709</v>
       </c>
       <c r="W34" t="n">
-        <v>722.546376316523</v>
+        <v>655.4684841564995</v>
       </c>
       <c r="X34" t="n">
-        <v>596.9289966252963</v>
+        <v>536.3596524174335</v>
       </c>
       <c r="Y34" t="n">
-        <v>482.2798779677299</v>
+        <v>428.2190817120278</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6962,22 +6962,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,16 +7014,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7093,16 +7093,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M37" t="n">
-        <v>499.953029634305</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N37" t="n">
         <v>812.1990332879427</v>
@@ -7151,19 +7151,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7211,7 +7211,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7330,22 +7330,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222411</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960409</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>499.953029634305</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655142</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O40" t="n">
-        <v>845.8474307072222</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
         <v>1094.779966106229</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,25 +7433,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7491,22 +7491,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N42" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885592</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369568</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218802</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F43" t="n">
         <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072661</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462912</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7573,46 +7573,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>435.0968109750519</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>621.3883893133159</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>804.578023344525</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>967.282790386233</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>1087.158956162812</v>
+        <v>965.7235964837996</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1664.251126542513</v>
+        <v>1575.011952036061</v>
       </c>
       <c r="C44" t="n">
-        <v>1375.134325142379</v>
+        <v>1285.895150635928</v>
       </c>
       <c r="D44" t="n">
-        <v>1093.751896455984</v>
+        <v>1004.512721949532</v>
       </c>
       <c r="E44" t="n">
-        <v>795.2270716694646</v>
+        <v>705.9878971630133</v>
       </c>
       <c r="F44" t="n">
-        <v>482.3913332963789</v>
+        <v>393.1521587899279</v>
       </c>
       <c r="G44" t="n">
-        <v>173.2872778813189</v>
+        <v>84.04810337486785</v>
       </c>
       <c r="H44" t="n">
-        <v>96.39754451471421</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3043.501530243763</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>3043.501530243763</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>3043.501530243763</v>
+        <v>2954.262355737312</v>
       </c>
       <c r="V44" t="n">
-        <v>2805.453421044218</v>
+        <v>2716.214246537766</v>
       </c>
       <c r="W44" t="n">
-        <v>2538.513086109442</v>
+        <v>2449.273911602991</v>
       </c>
       <c r="X44" t="n">
-        <v>2253.119181139436</v>
+        <v>2163.880006632984</v>
       </c>
       <c r="Y44" t="n">
-        <v>1960.687172156973</v>
+        <v>1871.447997650522</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.156408878212</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>429.2582352868633</v>
+        <v>429.2582352868629</v>
       </c>
       <c r="C46" t="n">
-        <v>363.111817449789</v>
+        <v>363.1118174497886</v>
       </c>
       <c r="D46" t="n">
-        <v>311.5374044492403</v>
+        <v>311.5374044492399</v>
       </c>
       <c r="E46" t="n">
-        <v>260.0372924053793</v>
+        <v>260.037292405379</v>
       </c>
       <c r="F46" t="n">
-        <v>206.7700577152887</v>
+        <v>206.7700577152885</v>
       </c>
       <c r="G46" t="n">
-        <v>142.5747039116707</v>
+        <v>142.5747039116706</v>
       </c>
       <c r="H46" t="n">
-        <v>91.15485297010116</v>
+        <v>91.1548529701011</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,49 +7807,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>245.9421007790648</v>
+        <v>202.7633592721974</v>
       </c>
       <c r="L46" t="n">
-        <v>512.0576726178721</v>
+        <v>468.8789311110047</v>
       </c>
       <c r="M46" t="n">
-        <v>757.1584414142776</v>
+        <v>757.1584414142762</v>
       </c>
       <c r="N46" t="n">
-        <v>940.3480754454869</v>
+        <v>940.3480754454854</v>
       </c>
       <c r="O46" t="n">
-        <v>1205.040774452202</v>
+        <v>1205.040774452201</v>
       </c>
       <c r="P46" t="n">
-        <v>1426.904872193788</v>
+        <v>1426.904872193787</v>
       </c>
       <c r="Q46" t="n">
-        <v>1532.315000528847</v>
+        <v>1532.315000528846</v>
       </c>
       <c r="R46" t="n">
-        <v>1512.47271125836</v>
+        <v>1512.472711258359</v>
       </c>
       <c r="S46" t="n">
-        <v>1413.715327537846</v>
+        <v>1413.715327537845</v>
       </c>
       <c r="T46" t="n">
-        <v>1282.054975803017</v>
+        <v>1282.054975803016</v>
       </c>
       <c r="U46" t="n">
-        <v>1100.674884141854</v>
+        <v>1100.674884141853</v>
       </c>
       <c r="V46" t="n">
-        <v>938.7542390596145</v>
+        <v>938.7542390596138</v>
       </c>
       <c r="W46" t="n">
-        <v>759.4825370877286</v>
+        <v>759.482537087728</v>
       </c>
       <c r="X46" t="n">
-        <v>629.4609149676483</v>
+        <v>629.4609149676477</v>
       </c>
       <c r="Y46" t="n">
-        <v>510.4075538812281</v>
+        <v>510.4075538812276</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7982,13 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>234.4053290216687</v>
+        <v>179.0752131224556</v>
       </c>
       <c r="M2" t="n">
-        <v>689.3938312907396</v>
+        <v>664.4886733105329</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>663.8821130505897</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8061,19 +8061,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>632.0559017423242</v>
+        <v>532.2020948425227</v>
       </c>
       <c r="N3" t="n">
-        <v>520.1642530212056</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>607.4511806016945</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8216,22 +8216,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>354.8839972083227</v>
       </c>
       <c r="M5" t="n">
-        <v>689.3938312907396</v>
+        <v>664.4886733105329</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>663.8821130505897</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>271.5725060815379</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8292,7 +8292,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>607.1507437621175</v>
       </c>
       <c r="N6" t="n">
-        <v>538.0953735314088</v>
+        <v>600.1357345669722</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>289.9968459215186</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8535,7 +8535,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>317.5329465084876</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
@@ -8547,7 +8547,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -9003,13 +9003,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
@@ -9018,13 +9018,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>212.2488719779076</v>
+        <v>491.4748860273814</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,10 +9240,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9252,16 +9252,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>373.1055958271594</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684361</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
-        <v>447.5171231095471</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10674,7 +10674,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -11139,25 +11139,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>342.3817097021776</v>
       </c>
       <c r="H11" t="n">
-        <v>225.2833154914169</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>70.30432748376064</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.19900125366071</v>
       </c>
       <c r="T11" t="n">
         <v>154.6161781614783</v>
       </c>
       <c r="U11" t="n">
-        <v>186.5457840150482</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>272.0363229488175</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>88.42505384714379</v>
       </c>
       <c r="X11" t="n">
-        <v>318.9086607615745</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>99.92209510684974</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>87.27434727342178</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>65.11406285459371</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>134.1385047245769</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>215.9349855858188</v>
       </c>
       <c r="V13" t="n">
         <v>196.6701334726848</v>
       </c>
       <c r="W13" t="n">
-        <v>37.78098631295415</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>165.0901007401475</v>
+        <v>105.1081019775696</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>240.9640074587147</v>
       </c>
       <c r="W14" t="n">
-        <v>27.81241179620115</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.63424829224823e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>141.7032708002682</v>
+        <v>196.1144209191623</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>33.93563264249265</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>61.83030641239277</v>
       </c>
       <c r="T44" t="n">
-        <v>118.2474833202104</v>
+        <v>118.2474833202103</v>
       </c>
       <c r="U44" t="n">
-        <v>150.1770891737802</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>742970.8501163408</v>
+        <v>742369.3025025805</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>742970.8501163408</v>
+        <v>742369.3025025805</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>655422.4589727877</v>
+        <v>655422.4589727878</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>703713.0767172663</v>
+        <v>703713.0767172665</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>747137.2983577404</v>
+        <v>747137.2983577403</v>
       </c>
     </row>
     <row r="12">
@@ -26317,43 +26317,43 @@
         <v>540996.5342800702</v>
       </c>
       <c r="D2" t="n">
-        <v>540996.5342800702</v>
+        <v>540996.5342800703</v>
       </c>
       <c r="E2" t="n">
-        <v>472210.4047413559</v>
+        <v>472210.4047413558</v>
       </c>
       <c r="F2" t="n">
-        <v>508428.3680497156</v>
+        <v>508428.3680497158</v>
       </c>
       <c r="G2" t="n">
         <v>540996.5342800703</v>
       </c>
       <c r="H2" t="n">
-        <v>540996.5342800703</v>
+        <v>540996.5342800702</v>
       </c>
       <c r="I2" t="n">
         <v>540996.5342800705</v>
       </c>
       <c r="J2" t="n">
-        <v>540996.5342800708</v>
+        <v>540996.5342800709</v>
       </c>
       <c r="K2" t="n">
-        <v>540996.5342800708</v>
+        <v>540996.5342800709</v>
       </c>
       <c r="L2" t="n">
-        <v>540996.5342800702</v>
+        <v>540996.5342800696</v>
       </c>
       <c r="M2" t="n">
-        <v>540996.5342800706</v>
+        <v>540996.5342800703</v>
       </c>
       <c r="N2" t="n">
+        <v>540996.5342800705</v>
+      </c>
+      <c r="O2" t="n">
         <v>540996.5342800703</v>
       </c>
-      <c r="O2" t="n">
-        <v>540996.5342800705</v>
-      </c>
       <c r="P2" t="n">
-        <v>516511.9020354032</v>
+        <v>516511.9020354033</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>180855.4204570614</v>
+        <v>172509.1291992606</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>16073.03574699071</v>
+        <v>23809.32497038232</v>
       </c>
       <c r="E3" t="n">
-        <v>108579.4461620183</v>
+        <v>108579.4461620184</v>
       </c>
       <c r="F3" t="n">
-        <v>21873.48497569383</v>
+        <v>21873.48497569377</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301434</v>
+        <v>29094.95587301435</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>202205.403242959</v>
+        <v>195689.1180883858</v>
       </c>
       <c r="K3" t="n">
-        <v>21873.48497569384</v>
+        <v>21873.48497569375</v>
       </c>
       <c r="L3" t="n">
-        <v>39804.58677398706</v>
+        <v>44959.35675209835</v>
       </c>
       <c r="M3" t="n">
-        <v>42370.88004226789</v>
+        <v>43422.57505345608</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>24224.57873074502</v>
+        <v>24224.57873074511</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189933.5452943755</v>
+        <v>196044.1719568383</v>
       </c>
       <c r="C4" t="n">
-        <v>189933.5452943754</v>
+        <v>196044.1719568383</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
-        <v>95417.4814738743</v>
+        <v>95417.48147387439</v>
       </c>
       <c r="F4" t="n">
-        <v>123047.6773561513</v>
+        <v>123047.6773561512</v>
       </c>
       <c r="G4" t="n">
         <v>147651.9979996332</v>
@@ -26439,13 +26439,13 @@
         <v>147651.9979996332</v>
       </c>
       <c r="J4" t="n">
+        <v>148402.4904640164</v>
+      </c>
+      <c r="K4" t="n">
         <v>148402.4904640163</v>
       </c>
-      <c r="K4" t="n">
-        <v>148402.4904640164</v>
-      </c>
       <c r="L4" t="n">
-        <v>148125.3477334538</v>
+        <v>147991.953124399</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
@@ -26454,7 +26454,7 @@
         <v>147651.9979996332</v>
       </c>
       <c r="O4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="P4" t="n">
         <v>129153.9551143144</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66439.46180533514</v>
+        <v>64925.22820013858</v>
       </c>
       <c r="C5" t="n">
-        <v>66439.46180533514</v>
+        <v>64925.22820013858</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>52813.6869983821</v>
+        <v>52813.68699838211</v>
       </c>
       <c r="F5" t="n">
         <v>55112.2895089091</v>
@@ -26485,7 +26485,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26494,10 +26494,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61638.48473234886</v>
+        <v>60665.94657376457</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="P5" t="n">
-        <v>55871.16680499265</v>
+        <v>55871.16680499266</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103768.1067232981</v>
+        <v>107518.0049238326</v>
       </c>
       <c r="C6" t="n">
-        <v>284623.5271803596</v>
+        <v>280027.1341230933</v>
       </c>
       <c r="D6" t="n">
-        <v>278100.0296917476</v>
+        <v>270363.7404683562</v>
       </c>
       <c r="E6" t="n">
-        <v>215399.7901070812</v>
+        <v>215170.5030086186</v>
       </c>
       <c r="F6" t="n">
-        <v>308394.9162089614</v>
+        <v>308286.3556548605</v>
       </c>
       <c r="G6" t="n">
         <v>306079.8110919031</v>
       </c>
       <c r="H6" t="n">
-        <v>335174.7669649175</v>
+        <v>335174.7669649174</v>
       </c>
       <c r="I6" t="n">
         <v>335174.7669649176</v>
       </c>
       <c r="J6" t="n">
-        <v>126729.595319176</v>
+        <v>133245.8804737493</v>
       </c>
       <c r="K6" t="n">
-        <v>307061.5135864411</v>
+        <v>307061.5135864413</v>
       </c>
       <c r="L6" t="n">
-        <v>291428.1150402805</v>
+        <v>287379.2778298077</v>
       </c>
       <c r="M6" t="n">
-        <v>292803.8869226498</v>
+        <v>291752.1919114614</v>
       </c>
       <c r="N6" t="n">
-        <v>335174.7669649175</v>
+        <v>335174.7669649176</v>
       </c>
       <c r="O6" t="n">
-        <v>310950.1882341726</v>
+        <v>310950.1882341723</v>
       </c>
       <c r="P6" t="n">
-        <v>331486.7801160961</v>
+        <v>331405.1646752806</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
+        <v>93.99127447431648</v>
+      </c>
+      <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="K2" t="n">
-        <v>93.99127447431647</v>
-      </c>
       <c r="L2" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>539.6687796930123</v>
+        <v>514.7636217128056</v>
       </c>
       <c r="C4" t="n">
-        <v>539.6687796930123</v>
+        <v>514.7636217128056</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="L4" t="n">
-        <v>865.3173902680954</v>
+        <v>840.4122322878886</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="F2" t="n">
-        <v>27.34185621961728</v>
+        <v>27.34185621961721</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30.28072341343125</v>
+        <v>30.28072341343133</v>
       </c>
       <c r="K2" t="n">
-        <v>27.3418562196173</v>
+        <v>27.34185621961718</v>
       </c>
       <c r="L2" t="n">
-        <v>49.75573346748382</v>
+        <v>56.19919594012293</v>
       </c>
       <c r="M2" t="n">
-        <v>22.98165621505201</v>
+        <v>16.53819374241293</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>30.28072341343128</v>
+        <v>30.28072341343139</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>539.6687796930123</v>
+        <v>514.7636217128056</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>51.74334657628276</v>
+        <v>76.64850455648946</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.2404202359464</v>
+        <v>655.3352622557396</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>96.24867606549765</v>
+        <v>121.1538340457045</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="K2" t="n">
-        <v>27.34185621961728</v>
+        <v>27.34185621961721</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>30.28072341343125</v>
+        <v>30.28072341343133</v>
       </c>
       <c r="P2" t="n">
-        <v>27.3418562196173</v>
+        <v>27.34185621961718</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>539.6687796930123</v>
+        <v>514.7636217128056</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>51.74334657628276</v>
+        <v>76.64850455648946</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>232.5434761097339</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>237.9448563525891</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27427,13 +27427,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -27442,10 +27442,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>42.29047305035655</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>43.54633639319135</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>83.19397938328329</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>66.5103490512187</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27600,10 +27600,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>191.5841959385478</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>92.20795846554932</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -27676,7 +27676,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>43.54633639319135</v>
+        <v>140.1982734827773</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27795,7 +27795,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>161.2917601480078</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>150.5070149094994</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>161.0346134683556</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>10.2934485797154</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>68.23321931532277</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28065,10 +28065,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>113.4925452492917</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="C11" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="D11" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="E11" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="F11" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="G11" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="H11" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="I11" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="T11" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="U11" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="V11" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="W11" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="X11" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="Y11" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="C13" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="D13" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="E13" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="F13" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="G13" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="H13" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="I13" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="J13" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="K13" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="L13" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="M13" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="N13" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="O13" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="P13" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="R13" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="S13" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="T13" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="U13" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="V13" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="W13" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="X13" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.64941825469917</v>
+        <v>66.64941825469923</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="17">
@@ -28746,7 +28746,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28755,19 +28755,19 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,13 +28980,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668824</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -28998,10 +28998,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>5.636002634528936</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29229,13 +29229,13 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>5.636002634529005</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901181</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901215</v>
+        <v>30.27223765901181</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="C32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="D32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="E32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="F32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="G32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="H32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="I32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>67.20219916389107</v>
+        <v>25.46623983028633</v>
       </c>
       <c r="L32" t="n">
-        <v>107.3783131005324</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>107.3783131005324</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>107.3783131005324</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="T32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="U32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="V32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="W32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="X32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="Y32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="C34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="D34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="E34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="F34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="G34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="H34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="I34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -29934,46 +29934,46 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="M34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="N34" t="n">
-        <v>73.8008601448588</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="O34" t="n">
-        <v>107.3783131005324</v>
+        <v>56.66013205517959</v>
       </c>
       <c r="P34" t="n">
-        <v>107.3783131005324</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3783131005324</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="S34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="T34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="U34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="V34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="W34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="X34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="Y34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731715</v>
       </c>
     </row>
     <row r="35">
@@ -30165,19 +30165,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>35.71049010668817</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155846</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
         <v>130.3599693155844</v>
@@ -30402,10 +30402,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30417,10 +30417,10 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>35.71049010668801</v>
       </c>
       <c r="P40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>128.2979821082774</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30657,13 +30657,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>5.636002634527912</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R43" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="C44" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="D44" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="E44" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="F44" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="G44" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="I44" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30739,31 +30739,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="T44" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="U44" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="V44" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="W44" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="X44" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="Y44" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="C46" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="D46" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="E46" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="F46" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="G46" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="I46" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>103.0181130959671</v>
+        <v>59.40322268498991</v>
       </c>
       <c r="L46" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="M46" t="n">
-        <v>59.40322268499142</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="P46" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="Q46" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="R46" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="S46" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="U46" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="V46" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="W46" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="X46" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
       <c r="Y46" t="n">
-        <v>103.0181130959671</v>
+        <v>103.0181130959672</v>
       </c>
     </row>
   </sheetData>
@@ -34702,13 +34702,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>81.15715929117704</v>
+        <v>25.82704339196384</v>
       </c>
       <c r="M2" t="n">
-        <v>539.6687796930123</v>
+        <v>514.7636217128056</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>514.7636217128056</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34781,19 +34781,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>539.6687796930123</v>
+        <v>439.8149727932108</v>
       </c>
       <c r="N3" t="n">
-        <v>434.792140167039</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>514.7636217128056</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>201.635827477831</v>
       </c>
       <c r="M5" t="n">
-        <v>539.6687796930123</v>
+        <v>514.7636217128056</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>514.7636217128056</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>121.2710588406127</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>514.7636217128056</v>
       </c>
       <c r="N6" t="n">
-        <v>452.7232606772421</v>
+        <v>514.7636217128056</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>197.3092870326297</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>227.4725996515693</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
@@ -35267,7 +35267,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>36.5749307825401</v>
+        <v>36.57493078254016</v>
       </c>
       <c r="K13" t="n">
         <v>149.3110759415092</v>
@@ -35574,19 +35574,19 @@
         <v>232.4349130767192</v>
       </c>
       <c r="M13" t="n">
-        <v>254.8227297074911</v>
+        <v>254.8227297074912</v>
       </c>
       <c r="N13" t="n">
         <v>251.689452629658</v>
       </c>
       <c r="O13" t="n">
-        <v>230.997667791778</v>
+        <v>230.9976677917781</v>
       </c>
       <c r="P13" t="n">
-        <v>187.7364543926573</v>
+        <v>187.7364543926574</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.10618226485165</v>
+        <v>70.10618226485171</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
@@ -35738,13 +35738,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>119.5613130890187</v>
+        <v>398.7873271384925</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35972,16 +35972,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>287.7334829729927</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36051,19 +36051,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,10 +36206,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.636002634529174</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36294,10 +36294,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724871</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36525,13 +36525,13 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>9.092766644681488</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272231</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101033</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
@@ -36616,7 +36616,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
-        <v>362.1450102553805</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,16 +36832,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272231</v>
+        <v>528.5755626272228</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
@@ -36853,7 +36853,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698319</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>429.8106395956707</v>
+        <v>388.074680262066</v>
       </c>
       <c r="L32" t="n">
-        <v>605.6816380687434</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>658.8943737516239</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>558.3062209189577</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>465.5263130797592</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>69.76532852319909</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N33" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37230,22 +37230,22 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>279.6072703951914</v>
       </c>
       <c r="M34" t="n">
-        <v>295.5516245533243</v>
+        <v>301.9950870259634</v>
       </c>
       <c r="N34" t="n">
-        <v>258.8408945198176</v>
+        <v>298.8618099481303</v>
       </c>
       <c r="O34" t="n">
-        <v>271.7265626376112</v>
+        <v>221.0083815922584</v>
       </c>
       <c r="P34" t="n">
-        <v>228.4653492384905</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>110.8350771106848</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934981</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>193.809314087321</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
-        <v>88.29766032133901</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37713,10 +37713,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>200.0587396437669</v>
       </c>
       <c r="P40" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
@@ -37783,7 +37783,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>294.0834769302974</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37953,13 +37953,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724861</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R43" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>185.6797707827771</v>
+        <v>142.0648803717999</v>
       </c>
       <c r="L46" t="n">
-        <v>268.8036079179871</v>
+        <v>268.8036079179872</v>
       </c>
       <c r="M46" t="n">
-        <v>247.5765341377834</v>
+        <v>291.1914245487591</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
